--- a/columns.xlsx
+++ b/columns.xlsx
@@ -113,7 +113,7 @@
     <t>451340 - 4</t>
   </si>
   <si>
-    <t>444668 – 3</t>
+    <t>444668 â€“ 3</t>
   </si>
   <si>
     <t>451316 - 12</t>
